--- a/Testdata/Dangky.xlsx
+++ b/Testdata/Dangky.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ĐỒ ÁN TỐT NGHIỆP\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATN\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -124,19 +124,19 @@
     <t>mai</t>
   </si>
   <si>
-    <t>ly1@gmail.com</t>
-  </si>
-  <si>
-    <t>ly2@gmail.com</t>
-  </si>
-  <si>
-    <t>ly3@gmail.com</t>
-  </si>
-  <si>
-    <t>ly4@gmail.com</t>
-  </si>
-  <si>
     <t>..&lt;&lt;&gt;@</t>
+  </si>
+  <si>
+    <t>ly11@gmail.com</t>
+  </si>
+  <si>
+    <t>ly22@gmail.com</t>
+  </si>
+  <si>
+    <t>ly33@gmail.com</t>
+  </si>
+  <si>
+    <t>ly44@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,7 +842,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10">
         <v>123123</v>
@@ -850,13 +850,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="10">
         <v>123123</v>
@@ -870,7 +870,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="10">
         <v>123123</v>
@@ -882,7 +882,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="10">
         <v>123123</v>
